--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishalrajpal/Desktop/Project Nerd Out/JustWorks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965BFDA4-A0F1-2440-920E-F6A8A0042362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889641F1-C639-C44F-AE79-525C01925EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{A5882A86-F7A7-A94F-9ACD-9B152B567559}"/>
   </bookViews>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DFA2FC-59B9-5645-A530-F9D6605DFD05}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
